--- a/biology/Histoire de la zoologie et de la botanique/Louis-Adolphe_Bertillon/Louis-Adolphe_Bertillon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis-Adolphe_Bertillon/Louis-Adolphe_Bertillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Adolphe Bertillon est un médecin, statisticien et anthropologue français né le 1er avril 1821 à Paris et mort le 28 février 1883 à Neuilly-sur-Seine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Adolphe Bertillon est un médecin, statisticien et anthropologue français né le 1er avril 1821 à Paris et mort le 28 février 1883 à Neuilly-sur-Seine.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ami de Jules Michelet, proche du mouvement socialiste, Louis-Adolphe Bertillon commence une carrière de médecin avant de se consacrer à l’emploi de la démographie pour effectuer des études anthropologiques. Il étudie les causes de mortalité, dont il propose la première nomenclature, et dénonce les détracteurs de la vaccine. Il participe à la fondation de l’école d’anthropologie de Paris dont il fut professeur de démographie. Louis-Adolphe Bertillon était également membre de la Société d'anthropologie de Paris et directeur du Service de statistiques de la Ville de Paris.
 Il doit sa notoriété non seulement à ses fonctions, mais aussi aux études qu'il a publiées dont Démographie figurée de la France (1874).
 Il est le père d'Alphonse Bertillon et de Jacques Bertillon.
-Il fut inhumé Neuilly[2].
+Il fut inhumé Neuilly.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Valeur philosophique de l'hypothèse du transformisme, Masson et fils, 1871
 Les Mouvements de la population dans les divers États d'Europe et notamment en France
